--- a/top100billboard.xlsx
+++ b/top100billboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="180">
   <si>
     <t>titles</t>
   </si>
@@ -25,523 +25,535 @@
     <t>Anti-Hero</t>
   </si>
   <si>
+    <t>Kill Bill</t>
+  </si>
+  <si>
     <t>Unholy</t>
   </si>
   <si>
-    <t>Kill Bill</t>
-  </si>
-  <si>
     <t>I'm Good (Blue)</t>
   </si>
   <si>
+    <t>Creepin'</t>
+  </si>
+  <si>
+    <t>Die For You</t>
+  </si>
+  <si>
     <t>Rich Flex</t>
   </si>
   <si>
-    <t>Creepin'</t>
-  </si>
-  <si>
     <t>As It Was</t>
   </si>
   <si>
-    <t>Die For You</t>
-  </si>
-  <si>
     <t>Bad Habit</t>
   </si>
   <si>
+    <t>Something In The Orange</t>
+  </si>
+  <si>
+    <t>Golden Hour</t>
+  </si>
+  <si>
+    <t>Under The Influence</t>
+  </si>
+  <si>
     <t>Cuff It</t>
   </si>
   <si>
-    <t>Something In The Orange</t>
-  </si>
-  <si>
     <t>Made You Look</t>
   </si>
   <si>
     <t>You Proof</t>
   </si>
   <si>
-    <t>Under The Influence</t>
-  </si>
-  <si>
-    <t>Golden Hour</t>
-  </si>
-  <si>
     <t>Just Wanna Rock</t>
   </si>
   <si>
+    <t>Rock And A Hard Place</t>
+  </si>
+  <si>
     <t>Thank God</t>
   </si>
   <si>
+    <t>Superhero (Heroes &amp; Villains)</t>
+  </si>
+  <si>
     <t>Super Freaky Girl</t>
   </si>
   <si>
     <t>I Like You (A Happier Song)</t>
   </si>
   <si>
-    <t>Rock And A Hard Place</t>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Until I Found You</t>
+  </si>
+  <si>
+    <t>Lift Me Up</t>
   </si>
   <si>
     <t>Tomorrow 2</t>
   </si>
   <si>
-    <t>Wasted On You</t>
-  </si>
-  <si>
-    <t>Shirt</t>
-  </si>
-  <si>
-    <t>Superhero (Heroes &amp; Villains)</t>
-  </si>
-  <si>
-    <t>Lift Me Up</t>
+    <t>Wait For U</t>
+  </si>
+  <si>
+    <t>Thought You Should Know</t>
+  </si>
+  <si>
+    <t>Escapism</t>
+  </si>
+  <si>
+    <t>Going, Going, Gone</t>
+  </si>
+  <si>
+    <t>Lavender Haze</t>
+  </si>
+  <si>
+    <t>Bebe Dame</t>
+  </si>
+  <si>
+    <t>Heart Like A Truck</t>
+  </si>
+  <si>
+    <t>The Kind Of Love We Make</t>
+  </si>
+  <si>
+    <t>Nobody Gets Me</t>
+  </si>
+  <si>
+    <t>She Had Me At Heads Carolina</t>
+  </si>
+  <si>
+    <t>Sunroof</t>
+  </si>
+  <si>
+    <t>Wait In The Truck</t>
+  </si>
+  <si>
+    <t>Calm Down</t>
+  </si>
+  <si>
+    <t>I Ain't Worried</t>
+  </si>
+  <si>
+    <t>What My World Spins Around</t>
+  </si>
+  <si>
+    <t>Vegas</t>
   </si>
   <si>
     <t>About Damn Time</t>
   </si>
   <si>
-    <t>Until I Found You</t>
-  </si>
-  <si>
-    <t>Wait For U</t>
-  </si>
-  <si>
-    <t>Sunroof</t>
-  </si>
-  <si>
-    <t>I Ain't Worried</t>
-  </si>
-  <si>
-    <t>Going, Going, Gone</t>
-  </si>
-  <si>
-    <t>Vegas</t>
-  </si>
-  <si>
-    <t>Thought You Should Know</t>
-  </si>
-  <si>
-    <t>The Kind Of Love We Make</t>
-  </si>
-  <si>
-    <t>She Had Me At Heads Carolina</t>
-  </si>
-  <si>
     <t>Son Of A Sinner</t>
   </si>
   <si>
-    <t>Lavender Haze</t>
-  </si>
-  <si>
-    <t>Wait In The Truck</t>
-  </si>
-  <si>
-    <t>Heart Like A Truck</t>
+    <t>Unstoppable</t>
   </si>
   <si>
     <t>Victoria's Secret</t>
   </si>
   <si>
-    <t>Unstoppable</t>
-  </si>
-  <si>
-    <t>Nobody Gets Me</t>
-  </si>
-  <si>
-    <t>Escapism</t>
-  </si>
-  <si>
-    <t>What My World Spins Around</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Calm Down</t>
-  </si>
-  <si>
     <t>Whiskey On You</t>
   </si>
   <si>
+    <t>Snooze</t>
+  </si>
+  <si>
+    <t>Sure Thing</t>
+  </si>
+  <si>
     <t>Fall In Love</t>
   </si>
   <si>
-    <t>Jimmy Cooks</t>
-  </si>
-  <si>
-    <t>Bebe Dame</t>
-  </si>
-  <si>
     <t>Blind</t>
   </si>
   <si>
+    <t>Star Walkin' (League Of Legends Worlds Anthem)</t>
+  </si>
+  <si>
+    <t>Que Vuelvas</t>
+  </si>
+  <si>
     <t>Hold Me Closer</t>
   </si>
   <si>
-    <t>Snooze</t>
-  </si>
-  <si>
-    <t>Star Walkin' (League Of Legends Worlds Anthem)</t>
-  </si>
-  <si>
     <t>Hotel Lobby (Unc And Phew)</t>
   </si>
   <si>
     <t>Love Language</t>
   </si>
   <si>
-    <t>Que Vuelvas</t>
+    <t>Romantic Homicide</t>
   </si>
   <si>
     <t>Tennessee Orange</t>
   </si>
   <si>
-    <t>Romantic Homicide</t>
+    <t>Spin Bout U</t>
+  </si>
+  <si>
+    <t>Pick Me Up</t>
+  </si>
+  <si>
+    <t>What He Didn't Do</t>
+  </si>
+  <si>
+    <t>Bloody Mary</t>
+  </si>
+  <si>
+    <t>Half Of Me</t>
+  </si>
+  <si>
+    <t>Too Many Nights</t>
+  </si>
+  <si>
+    <t>Forget Me</t>
+  </si>
+  <si>
+    <t>Circo Loco</t>
+  </si>
+  <si>
+    <t>Handle On You</t>
+  </si>
+  <si>
+    <t>Freestyle</t>
+  </si>
+  <si>
+    <t>No Se Va</t>
+  </si>
+  <si>
+    <t>The Color Violet</t>
+  </si>
+  <si>
+    <t>Wild As Her</t>
+  </si>
+  <si>
+    <t>Seek &amp; Destroy</t>
+  </si>
+  <si>
+    <t>Down Home</t>
+  </si>
+  <si>
+    <t>Snap</t>
   </si>
   <si>
     <t>Gato de Noche</t>
   </si>
   <si>
-    <t>Down Home</t>
-  </si>
-  <si>
-    <t>Spin Bout U</t>
-  </si>
-  <si>
-    <t>Pick Me Up</t>
-  </si>
-  <si>
-    <t>Circo Loco</t>
-  </si>
-  <si>
-    <t>Too Many Nights</t>
-  </si>
-  <si>
-    <t>Seek &amp; Destroy</t>
-  </si>
-  <si>
-    <t>What He Didn't Do</t>
-  </si>
-  <si>
-    <t>Bloody Mary</t>
-  </si>
-  <si>
-    <t>Handle On You</t>
-  </si>
-  <si>
-    <t>No Se Va</t>
-  </si>
-  <si>
-    <t>Snap</t>
-  </si>
-  <si>
-    <t>Freestyle</t>
-  </si>
-  <si>
-    <t>Half Of Me</t>
-  </si>
-  <si>
-    <t>Forget Me</t>
-  </si>
-  <si>
-    <t>Wild As Her</t>
+    <t>Shut Up My Moms Calling</t>
+  </si>
+  <si>
+    <t>Here With Me</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>La Bachata</t>
+  </si>
+  <si>
+    <t>Ghost In The Machine</t>
+  </si>
+  <si>
+    <t>La Jumpa</t>
+  </si>
+  <si>
+    <t>One Thing At A Time</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
-    <t>One Thing At A Time</t>
-  </si>
-  <si>
-    <t>Billie Eilish.</t>
-  </si>
-  <si>
-    <t>Ghost In The Machine</t>
-  </si>
-  <si>
-    <t>La Jumpa</t>
+    <t>Open Arms</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>Heyy</t>
+  </si>
+  <si>
+    <t>Out In The Middle</t>
+  </si>
+  <si>
+    <t>Love You Better</t>
+  </si>
+  <si>
+    <t>Niagara Falls (Foot Or 2)</t>
+  </si>
+  <si>
+    <t>California Breeze</t>
   </si>
   <si>
     <t>Bejeweled</t>
   </si>
   <si>
-    <t>La Bachata</t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Heyy</t>
-  </si>
-  <si>
-    <t>Open Arms</t>
-  </si>
-  <si>
-    <t>Niagara Falls (Foot Or 2)</t>
-  </si>
-  <si>
-    <t>The Color Violet</t>
-  </si>
-  <si>
-    <t>Here With Me</t>
-  </si>
-  <si>
-    <t>California Breeze</t>
+    <t>Pussy &amp; Millions</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>On BS</t>
+  </si>
+  <si>
+    <t>Miss You</t>
+  </si>
+  <si>
+    <t>Ditto</t>
+  </si>
+  <si>
+    <t>That's What Tequila Does</t>
+  </si>
+  <si>
+    <t>Gone Girl</t>
   </si>
   <si>
     <t>SOS</t>
   </si>
   <si>
-    <t>Love You Better</t>
-  </si>
-  <si>
-    <t>Pussy &amp; Millions</t>
-  </si>
-  <si>
-    <t>Out In The Middle</t>
-  </si>
-  <si>
-    <t>Gone Girl</t>
-  </si>
-  <si>
-    <t>On BS</t>
-  </si>
-  <si>
-    <t>Shut Up My Moms Calling</t>
-  </si>
-  <si>
-    <t>Midnight Rain</t>
-  </si>
-  <si>
-    <t>Players</t>
-  </si>
-  <si>
-    <t>Major Distribution</t>
-  </si>
-  <si>
-    <t>Notice Me</t>
+    <t>You Didn't</t>
   </si>
   <si>
     <t>Taylor Swift</t>
   </si>
   <si>
+    <t>SZA</t>
+  </si>
+  <si>
     <t>Sam Smith &amp; Kim Petras</t>
   </si>
   <si>
-    <t>SZA</t>
-  </si>
-  <si>
     <t>David Guetta &amp; Bebe Rexha</t>
   </si>
   <si>
+    <t>Metro Boomin, The Weeknd &amp; 21 Savage</t>
+  </si>
+  <si>
+    <t>The Weeknd</t>
+  </si>
+  <si>
     <t>Drake &amp; 21 Savage</t>
   </si>
   <si>
-    <t>Metro Boomin, The Weeknd &amp; 21 Savage</t>
-  </si>
-  <si>
     <t>Harry Styles</t>
   </si>
   <si>
-    <t>The Weeknd</t>
-  </si>
-  <si>
     <t>Steve Lacy</t>
   </si>
   <si>
+    <t>Zach Bryan</t>
+  </si>
+  <si>
+    <t>JVKE</t>
+  </si>
+  <si>
+    <t>Chris Brown</t>
+  </si>
+  <si>
     <t>Beyonce</t>
   </si>
   <si>
-    <t>Zach Bryan</t>
-  </si>
-  <si>
     <t>Meghan Trainor</t>
   </si>
   <si>
     <t>Morgan Wallen</t>
   </si>
   <si>
-    <t>Chris Brown</t>
-  </si>
-  <si>
-    <t>JVKE</t>
-  </si>
-  <si>
     <t>Lil Uzi Vert</t>
   </si>
   <si>
+    <t>Bailey Zimmerman</t>
+  </si>
+  <si>
     <t>Kane Brown With Katelyn Brown</t>
   </si>
   <si>
+    <t>Metro Boomin, Future &amp; Chris Brown</t>
+  </si>
+  <si>
     <t>Nicki Minaj</t>
   </si>
   <si>
     <t>Post Malone Featuring Doja Cat</t>
   </si>
   <si>
-    <t>Bailey Zimmerman</t>
+    <t>Stephen Sanchez</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
   </si>
   <si>
     <t>GloRilla &amp; Cardi B</t>
   </si>
   <si>
-    <t>Metro Boomin, Future &amp; Chris Brown</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
+    <t>Future Featuring Drake &amp; Tems</t>
+  </si>
+  <si>
+    <t>RAYE Featuring 070 Shake</t>
+  </si>
+  <si>
+    <t>Luke Combs</t>
+  </si>
+  <si>
+    <t>Fuerza Regida X Grupo Frontera</t>
+  </si>
+  <si>
+    <t>Lainey Wilson</t>
+  </si>
+  <si>
+    <t>Cole Swindell</t>
+  </si>
+  <si>
+    <t>Nicky Youre &amp; dazy</t>
+  </si>
+  <si>
+    <t>HARDY Featuring Lainey Wilson</t>
+  </si>
+  <si>
+    <t>Rema &amp; Selena Gomez</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Jordan Davis</t>
+  </si>
+  <si>
+    <t>Doja Cat</t>
   </si>
   <si>
     <t>Lizzo</t>
   </si>
   <si>
-    <t>Stephen Sanchez</t>
-  </si>
-  <si>
-    <t>Future Featuring Drake &amp; Tems</t>
-  </si>
-  <si>
-    <t>Nicky Youre &amp; dazy</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
-  </si>
-  <si>
-    <t>Luke Combs</t>
-  </si>
-  <si>
-    <t>Doja Cat</t>
-  </si>
-  <si>
-    <t>Cole Swindell</t>
-  </si>
-  <si>
     <t>Jelly Roll</t>
   </si>
   <si>
-    <t>HARDY Featuring Lainey Wilson</t>
-  </si>
-  <si>
-    <t>Lainey Wilson</t>
+    <t>Sia</t>
   </si>
   <si>
     <t>Jax</t>
   </si>
   <si>
-    <t>Sia</t>
-  </si>
-  <si>
-    <t>RAYE Featuring 070 Shake</t>
-  </si>
-  <si>
-    <t>Jordan Davis</t>
-  </si>
-  <si>
-    <t>Rema &amp; Selena Gomez</t>
-  </si>
-  <si>
     <t>Nate Smith</t>
   </si>
   <si>
-    <t>Drake Featuring 21 Savage</t>
-  </si>
-  <si>
-    <t>Fuerza Regida X Grupo Frontera</t>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Lil Nas X</t>
+  </si>
+  <si>
+    <t>Carin Leon X Grupo Frontera</t>
   </si>
   <si>
     <t>Elton John &amp; Britney Spears</t>
   </si>
   <si>
-    <t>Lil Nas X</t>
-  </si>
-  <si>
     <t>Quavo &amp; Takeoff</t>
   </si>
   <si>
-    <t>Carin Leon X Grupo Frontera</t>
+    <t>d4vd</t>
   </si>
   <si>
     <t>Megan Moroney</t>
   </si>
   <si>
-    <t>d4vd</t>
+    <t>Gabby Barrett</t>
+  </si>
+  <si>
+    <t>Carly Pearce</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Thomas Rhett Featuring Riley Green</t>
+  </si>
+  <si>
+    <t>Metro Boomin Featuring Don Toliver &amp; Future</t>
+  </si>
+  <si>
+    <t>Lewis Capaldi</t>
+  </si>
+  <si>
+    <t>Parker McCollum</t>
+  </si>
+  <si>
+    <t>Lil Baby</t>
+  </si>
+  <si>
+    <t>Grupo Frontera</t>
+  </si>
+  <si>
+    <t>Tory Lanez</t>
+  </si>
+  <si>
+    <t>Corey Kent</t>
+  </si>
+  <si>
+    <t>Jimmie Allen</t>
+  </si>
+  <si>
+    <t>Rosa Linn</t>
   </si>
   <si>
     <t>Nengo Flow &amp; Bad Bunny</t>
   </si>
   <si>
-    <t>Jimmie Allen</t>
-  </si>
-  <si>
-    <t>Gabby Barrett</t>
-  </si>
-  <si>
-    <t>Metro Boomin Featuring Don Toliver &amp; Future</t>
-  </si>
-  <si>
-    <t>Carly Pearce</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
-    <t>Parker McCollum</t>
-  </si>
-  <si>
-    <t>Grupo Frontera</t>
-  </si>
-  <si>
-    <t>Rosa Linn</t>
-  </si>
-  <si>
-    <t>Lil Baby</t>
-  </si>
-  <si>
-    <t>Thomas Rhett Featuring Riley Green</t>
-  </si>
-  <si>
-    <t>Lewis Capaldi</t>
-  </si>
-  <si>
-    <t>Corey Kent</t>
+    <t>Hotel Ugly</t>
+  </si>
+  <si>
+    <t>Coi Leray</t>
+  </si>
+  <si>
+    <t>Manuel Turizo</t>
+  </si>
+  <si>
+    <t>SZA Featuring Phoebe Bridgers</t>
+  </si>
+  <si>
+    <t>Arcangel &amp; Bad Bunny</t>
   </si>
   <si>
     <t>SZA Featuring Don Toliver</t>
   </si>
   <si>
-    <t>Armani White</t>
-  </si>
-  <si>
-    <t>SZA Featuring Phoebe Bridgers</t>
-  </si>
-  <si>
-    <t>Arcangel &amp; Bad Bunny</t>
-  </si>
-  <si>
-    <t>Manuel Turizo</t>
-  </si>
-  <si>
     <t>SZA Featuring Travis Scott</t>
   </si>
   <si>
+    <t>Zac Brown Band</t>
+  </si>
+  <si>
+    <t>Future</t>
+  </si>
+  <si>
     <t>Metro Boomin, Travis Scott &amp; 21 Savage</t>
   </si>
   <si>
-    <t>Tory Lanez</t>
-  </si>
-  <si>
-    <t>Future</t>
-  </si>
-  <si>
     <t>Drake &amp; 21 Savage Featuring Travis Scott</t>
   </si>
   <si>
-    <t>Zac Brown Band</t>
-  </si>
-  <si>
-    <t>Hotel Ugly</t>
-  </si>
-  <si>
-    <t>Coi Leray</t>
+    <t>YoungBoy Never Broke Again</t>
+  </si>
+  <si>
+    <t>Oliver Tree &amp; Robin Schulz</t>
+  </si>
+  <si>
+    <t>NewJeans</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Brett Young</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1094,7 +1106,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1102,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1110,7 +1122,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1118,7 +1130,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1126,7 +1138,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1150,7 +1162,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1158,7 +1170,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1166,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1174,7 +1186,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1182,7 +1194,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1190,7 +1202,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1198,7 +1210,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1206,7 +1218,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1246,7 +1258,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1254,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1262,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1270,7 +1282,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1278,7 +1290,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1286,7 +1298,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1294,7 +1306,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1302,7 +1314,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1310,7 +1322,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1318,7 +1330,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1334,7 +1346,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1342,7 +1354,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1350,7 +1362,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1358,7 +1370,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1366,7 +1378,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1374,7 +1386,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1382,7 +1394,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1406,7 +1418,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1414,7 +1426,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1422,7 +1434,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1430,7 +1442,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1438,7 +1450,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1446,7 +1458,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1454,7 +1466,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1462,7 +1474,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1470,7 +1482,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1478,7 +1490,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1486,7 +1498,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1494,7 +1506,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1502,7 +1514,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1510,7 +1522,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1518,7 +1530,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1526,7 +1538,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1534,7 +1546,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1542,7 +1554,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1550,7 +1562,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1558,7 +1570,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1566,7 +1578,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1574,7 +1586,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1582,7 +1594,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1590,7 +1602,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1598,7 +1610,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1606,7 +1618,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1614,7 +1626,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1622,7 +1634,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1630,7 +1642,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1638,7 +1650,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1646,7 +1658,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1654,7 +1666,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1662,7 +1674,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1670,7 +1682,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1678,7 +1690,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1686,7 +1698,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1694,7 +1706,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1702,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1710,7 +1722,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
